--- a/data_eos/eos_stiff.xlsx
+++ b/data_eos/eos_stiff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/eos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/data_eos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10484041DA509C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12F06B3-26BD-42C1-AC17-91FFAD583555}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10484041DA509C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E73506-1F29-4034-B654-DE39D591EE61}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +98,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,14 +365,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -380,856 +383,856 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3.9804822000000001E-18</v>
+      <c r="A2" s="1">
+        <v>3.9311744250000005E-18</v>
       </c>
       <c r="B2">
         <v>5.6506710149999995E-31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4.0091703600000008E-18</v>
+      <c r="A3" s="1">
+        <v>3.9508975350000003E-18</v>
       </c>
       <c r="B3">
         <v>5.6506710150000004E-30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4.135577565E-18</v>
+      <c r="A4" s="1">
+        <v>4.0764082350000005E-18</v>
       </c>
       <c r="B4">
         <v>5.6506710150000005E-29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.8882448400000006E-18</v>
+      <c r="A5" s="1">
+        <v>5.8021803600000001E-18</v>
       </c>
       <c r="B5">
         <v>6.7695092550000006E-28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8.3392895100000012E-18</v>
+      <c r="A6" s="1">
+        <v>8.2030207500000005E-18</v>
       </c>
       <c r="B6">
         <v>7.8327641849999998E-27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2.2914667800000003E-17</v>
+      <c r="A7" s="1">
+        <v>2.25560658E-17</v>
       </c>
       <c r="B7">
         <v>9.5119180500000005E-26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.069530465E-16</v>
+      <c r="A8" s="1">
+        <v>1.060565415E-16</v>
       </c>
       <c r="B8">
         <v>3.2561061599999997E-24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.8371440550000003E-16</v>
+      <c r="A9" s="1">
+        <v>5.7519760800000005E-16</v>
       </c>
       <c r="B9">
         <v>1.0632549299999999E-22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5.3028270750000007E-15</v>
+      <c r="A10" s="1">
+        <v>5.2221416250000006E-15</v>
       </c>
       <c r="B10">
         <v>5.4516469050000003E-21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1.3313099250000001E-14</v>
+      <c r="A11" s="1">
+        <v>1.3115868149999999E-14</v>
       </c>
       <c r="B11">
         <v>2.7791655000000003E-20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3.34575666E-14</v>
+      <c r="A12" s="1">
+        <v>3.2946558750000004E-14</v>
       </c>
       <c r="B12">
         <v>1.359998085E-19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>8.4029413650000012E-14</v>
+      <c r="A13" s="1">
+        <v>8.2729481400000003E-14</v>
       </c>
       <c r="B13">
         <v>6.4395954150000001E-19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.1112692750000002E-13</v>
+      <c r="A14" s="1">
+        <v>2.0789950950000002E-13</v>
       </c>
       <c r="B14">
         <v>2.94591543E-18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5.3019305700000001E-13</v>
+      <c r="A15" s="1">
+        <v>5.2221416250000003E-13</v>
       </c>
       <c r="B15">
         <v>1.297242735E-17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1.3313099250000001E-12</v>
+      <c r="A16" s="1">
+        <v>1.3115868150000002E-12</v>
       </c>
       <c r="B16">
         <v>5.4579224400000002E-17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3.3457566600000002E-12</v>
+      <c r="A17" s="1">
+        <v>3.29555238E-12</v>
       </c>
       <c r="B17">
         <v>2.1883687050000003E-16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>4.2117804899999999E-12</v>
+      <c r="A18" s="1">
+        <v>4.1481286350000001E-12</v>
       </c>
       <c r="B18">
         <v>2.9423294100000003E-16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>8.4029413650000008E-12</v>
+      <c r="A19" s="1">
+        <v>8.2774306650000005E-12</v>
       </c>
       <c r="B19">
         <v>8.0282022749999996E-16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1.6764643500000001E-11</v>
+      <c r="A20" s="1">
+        <v>1.65136221E-11</v>
       </c>
       <c r="B20">
         <v>2.1444399600000002E-15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3.3457566600000004E-11</v>
+      <c r="A21" s="1">
+        <v>3.2955523800000003E-11</v>
       </c>
       <c r="B21">
         <v>5.62825839E-15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6.6744797250000002E-11</v>
+      <c r="A22" s="1">
+        <v>6.5776571850000001E-11</v>
       </c>
       <c r="B22">
         <v>1.4568206250000001E-14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1.3313099250000001E-10</v>
+      <c r="A23" s="1">
+        <v>1.3124833200000001E-10</v>
       </c>
       <c r="B23">
         <v>3.7348398300000001E-14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1.67646435E-10</v>
+      <c r="A24" s="1">
+        <v>1.6522587150000001E-10</v>
       </c>
       <c r="B24">
         <v>4.888641765E-14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2.6572408200000001E-10</v>
+      <c r="A25" s="1">
+        <v>2.6195876099999999E-10</v>
       </c>
       <c r="B25">
         <v>9.1174558500000013E-14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>4.2117804899999999E-10</v>
+      <c r="A26" s="1">
+        <v>4.1517146550000001E-10</v>
       </c>
       <c r="B26">
         <v>1.6943944500000003E-13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>5.3019305699999996E-10</v>
+      <c r="A27" s="1">
+        <v>5.2266241500000004E-10</v>
       </c>
       <c r="B27">
         <v>2.3102933850000002E-13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6.6744797250000012E-10</v>
+      <c r="A28" s="1">
+        <v>6.5821397099999999E-10</v>
       </c>
       <c r="B28">
         <v>2.817715215E-13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>8.4029413650000003E-10</v>
+      <c r="A29" s="1">
+        <v>8.2881887250000003E-10</v>
       </c>
       <c r="B29">
         <v>3.8379379049999999E-13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1.331309925E-9</v>
+      <c r="A30" s="1">
+        <v>1.313379825E-9</v>
       </c>
       <c r="B30">
         <v>7.1164566900000002E-13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2.1112692750000001E-9</v>
+      <c r="A31" s="1">
+        <v>2.0825811150000002E-9</v>
       </c>
       <c r="B31">
         <v>1.3178623499999999E-12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3.3457566600000003E-9</v>
+      <c r="A32" s="1">
+        <v>3.3018279150000003E-9</v>
       </c>
       <c r="B32">
         <v>2.44028661E-12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4.2117804900000004E-9</v>
+      <c r="A33" s="1">
+        <v>4.1570936849999999E-9</v>
       </c>
       <c r="B33">
         <v>3.1673521650000002E-12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>5.30193057E-9</v>
+      <c r="A34" s="1">
+        <v>5.2320031800000006E-9</v>
       </c>
       <c r="B34">
         <v>4.309499535E-12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6.6744797250000002E-9</v>
+      <c r="A35" s="1">
+        <v>6.5920012650000006E-9</v>
       </c>
       <c r="B35">
         <v>5.8631427000000003E-12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>8.4029413650000001E-9</v>
+      <c r="A36" s="1">
+        <v>8.2980502800000007E-9</v>
       </c>
       <c r="B36">
         <v>7.9726189650000001E-12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1.0578759000000001E-8</v>
+      <c r="A37" s="1">
+        <v>1.0453248300000001E-8</v>
       </c>
       <c r="B37">
         <v>1.0838745449999999E-11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1.3313099250000001E-8</v>
+      <c r="A38" s="1">
+        <v>1.3160693400000001E-8</v>
       </c>
       <c r="B38">
         <v>1.40034081E-11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1.6764643500000002E-8</v>
+      <c r="A39" s="1">
+        <v>1.6567412400000001E-8</v>
       </c>
       <c r="B39">
         <v>1.9041766200000001E-11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2.1112692750000002E-8</v>
+      <c r="A40" s="1">
+        <v>2.0870636399999999E-8</v>
       </c>
       <c r="B40">
         <v>2.5891064400000001E-11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2.6572408200000002E-8</v>
+      <c r="A41" s="1">
+        <v>2.6276561549999999E-8</v>
       </c>
       <c r="B41">
         <v>3.3287230649999998E-11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>3.3457566599999998E-8</v>
+      <c r="A42" s="1">
+        <v>3.3098964600000003E-8</v>
       </c>
       <c r="B42">
         <v>4.5255572399999997E-11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>4.2117804900000006E-8</v>
+      <c r="A43" s="1">
+        <v>4.1678517449999998E-8</v>
       </c>
       <c r="B43">
         <v>6.1545068250000005E-11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5.30193057E-8</v>
+      <c r="A44" s="1">
+        <v>5.2463472600000006E-8</v>
       </c>
       <c r="B44">
         <v>8.3643916500000004E-11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>6.6744797250000012E-8</v>
+      <c r="A45" s="1">
+        <v>6.6126208800000006E-8</v>
       </c>
       <c r="B45">
         <v>1.137664845E-10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>8.4029413650000001E-8</v>
+      <c r="A46" s="1">
+        <v>8.3231524200000011E-8</v>
       </c>
       <c r="B46">
         <v>1.4532346050000003E-10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>9.3057219000000011E-8</v>
+      <c r="A47" s="1">
+        <v>9.2250364500000008E-8</v>
       </c>
       <c r="B47">
         <v>1.6181915250000001E-10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1.0578759E-7</v>
+      <c r="A48" s="1">
+        <v>1.0480143450000001E-7</v>
       </c>
       <c r="B48">
         <v>1.840524765E-10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1.331309925E-7</v>
+      <c r="A49" s="1">
+        <v>1.3205518649999999E-7</v>
       </c>
       <c r="B49">
         <v>2.5021454550000001E-10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1.6764643500000001E-7</v>
+      <c r="A50" s="1">
+        <v>1.663016775E-7</v>
       </c>
       <c r="B50">
         <v>3.25431315E-10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2.1668525850000002E-7</v>
+      <c r="A51" s="1">
+        <v>2.1498189900000002E-7</v>
       </c>
       <c r="B51">
         <v>4.3668758550000004E-10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2.2493310450000003E-7</v>
+      <c r="A52" s="1">
+        <v>2.23050444E-7</v>
       </c>
       <c r="B52">
         <v>4.4143906200000007E-10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2.6330351850000004E-7</v>
+      <c r="A53" s="1">
+        <v>2.6151050850000001E-7</v>
       </c>
       <c r="B53">
         <v>4.6725840599999997E-10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>3.3278265599999999E-7</v>
+      <c r="A54" s="1">
+        <v>3.3063104400000002E-7</v>
       </c>
       <c r="B54">
         <v>5.0903553900000008E-10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>4.0082738550000002E-7</v>
+      <c r="A55" s="1">
+        <v>3.9831717149999999E-7</v>
       </c>
       <c r="B55">
         <v>5.5000581750000008E-10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>4.895813805000001E-7</v>
+      <c r="A56" s="1">
+        <v>4.8653326350000004E-7</v>
       </c>
       <c r="B56">
         <v>6.0594772950000001E-10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>6.0164450550000002E-7</v>
+      <c r="A57" s="1">
+        <v>5.9823778650000006E-7</v>
       </c>
       <c r="B57">
         <v>6.8143345050000003E-10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>7.4006487750000004E-7</v>
+      <c r="A58" s="1">
+        <v>7.3576165349999998E-7</v>
       </c>
       <c r="B58">
         <v>7.8273851550000011E-10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>8.4235609800000007E-7</v>
+      <c r="A59" s="1">
+        <v>8.4181819499999997E-7</v>
       </c>
       <c r="B59">
         <v>5.3288257200000009E-10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>3.3690657900000003E-6</v>
+      <c r="A60" s="1">
+        <v>3.3726518100000002E-6</v>
       </c>
       <c r="B60">
         <v>5.1988324950000004E-9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>6.7390280850000003E-6</v>
+      <c r="A61" s="1">
+        <v>6.7506826500000008E-6</v>
       </c>
       <c r="B61">
         <v>1.0453248300000001E-8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1.010361135E-5</v>
+      <c r="A62" s="1">
+        <v>1.0130506500000002E-5</v>
       </c>
       <c r="B62">
         <v>1.8692129250000002E-8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1.347447015E-5</v>
+      <c r="A63" s="1">
+        <v>1.3519295400000001E-5</v>
       </c>
       <c r="B63">
         <v>2.8831600800000001E-8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1.684532895E-5</v>
+      <c r="A64" s="1">
+        <v>1.6908084299999999E-5</v>
       </c>
       <c r="B64">
         <v>4.0477200750000006E-8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2.0216187750000003E-5</v>
+      <c r="A65" s="1">
+        <v>2.0296873200000001E-5</v>
       </c>
       <c r="B65">
         <v>5.3440663050000008E-8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>2.3587046549999999E-5</v>
+      <c r="A66" s="1">
+        <v>2.3685662100000004E-5</v>
       </c>
       <c r="B66">
         <v>6.7632337200000001E-8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>2.6957905350000003E-5</v>
+      <c r="A67" s="1">
+        <v>2.7083416050000002E-5</v>
       </c>
       <c r="B67">
         <v>8.3016363E-8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>3.0319799100000003E-5</v>
+      <c r="A68" s="1">
+        <v>3.048117E-5</v>
       </c>
       <c r="B68">
         <v>9.9512055000000012E-8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>3.3690657899999999E-5</v>
+      <c r="A69" s="1">
+        <v>3.3878923950000002E-5</v>
       </c>
       <c r="B69">
         <v>1.1726285400000001E-7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>3.7061516700000003E-5</v>
+      <c r="A70" s="1">
+        <v>3.7276677900000003E-5</v>
       </c>
       <c r="B70">
         <v>1.3608945899999999E-7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>4.0432375500000006E-5</v>
+      <c r="A71" s="1">
+        <v>4.0683396900000004E-5</v>
       </c>
       <c r="B71">
         <v>1.5617117100000001E-7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>4.3803234300000002E-5</v>
+      <c r="A72" s="1">
+        <v>4.4090115899999999E-5</v>
       </c>
       <c r="B72">
         <v>1.7750799000000002E-7</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>4.7174093099999999E-5</v>
+      <c r="A73" s="1">
+        <v>4.74968349E-5</v>
       </c>
       <c r="B73">
         <v>2.0001026550000001E-7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>5.0535986850000002E-5</v>
+      <c r="A74" s="1">
+        <v>5.0903553900000001E-5</v>
       </c>
       <c r="B74">
         <v>2.2385729850000001E-7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>5.3906845650000006E-5</v>
+      <c r="A75" s="1">
+        <v>5.4310272900000002E-5</v>
       </c>
       <c r="B75">
         <v>2.489594385E-7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>5.7277704450000002E-5</v>
+      <c r="A76" s="1">
+        <v>5.7716991899999996E-5</v>
       </c>
       <c r="B76">
         <v>2.7549598650000005E-7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>6.0648563250000005E-5</v>
+      <c r="A77" s="1">
+        <v>6.1132675950000004E-5</v>
       </c>
       <c r="B77">
         <v>3.0346694250000003E-7</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>6.4019422049999995E-5</v>
+      <c r="A78" s="1">
+        <v>6.4548360000000004E-5</v>
       </c>
       <c r="B78">
         <v>3.3287230650000004E-7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>6.7390280850000012E-5</v>
+      <c r="A79" s="1">
+        <v>6.7964044050000005E-5</v>
       </c>
       <c r="B79">
         <v>3.6344312699999999E-7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>7.8058690350000002E-5</v>
+      <c r="A80" s="1">
+        <v>7.8883474949999994E-5</v>
       </c>
       <c r="B80">
         <v>6.2396747999999996E-7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>9.6015685499999993E-5</v>
+      <c r="A81" s="1">
+        <v>9.7181142000000005E-5</v>
       </c>
       <c r="B81">
         <v>1.03098075E-6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1.058772405E-4</v>
+      <c r="A82" s="1">
+        <v>1.0731164850000001E-4</v>
       </c>
       <c r="B82">
         <v>1.3205518650000001E-6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>1.1645599950000001E-4</v>
+      <c r="A83" s="1">
+        <v>1.1824900950000002E-4</v>
       </c>
       <c r="B83">
         <v>1.6854293999999999E-6</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>1.2775196250000001E-4</v>
+      <c r="A84" s="1">
+        <v>1.2981392400000002E-4</v>
       </c>
       <c r="B84">
         <v>2.1444399599999999E-6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>1.3976512950000003E-4</v>
+      <c r="A85" s="1">
+        <v>1.4227534349999999E-4</v>
       </c>
       <c r="B85">
         <v>2.7146171400000002E-6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1.4819227650000001E-4</v>
+      <c r="A86" s="1">
+        <v>1.5106109250000001E-4</v>
       </c>
       <c r="B86">
         <v>3.1754207100000001E-6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>1.6172950200000002E-4</v>
+      <c r="A87" s="1">
+        <v>1.6513622100000001E-4</v>
       </c>
       <c r="B87">
         <v>4.6976862000000007E-6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>1.7517707700000001E-4</v>
+      <c r="A88" s="1">
+        <v>1.793906505E-4</v>
       </c>
       <c r="B88">
         <v>6.7345455599999997E-6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>1.8871430250000002E-4</v>
+      <c r="A89" s="1">
+        <v>1.9382438099999999E-4</v>
       </c>
       <c r="B89">
         <v>9.3953724000000014E-6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>2.0216187750000001E-4</v>
+      <c r="A90" s="1">
+        <v>2.0843741250000002E-4</v>
       </c>
       <c r="B90">
         <v>1.2820021500000001E-5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>2.1560945250000002E-4</v>
+      <c r="A91" s="1">
+        <v>2.2340904599999999E-4</v>
       </c>
       <c r="B91">
         <v>1.8279736950000003E-5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>2.2914667800000001E-4</v>
+      <c r="A92" s="1">
+        <v>2.3873928150000003E-4</v>
       </c>
       <c r="B92">
         <v>2.552349735E-5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>2.4259425300000002E-4</v>
+      <c r="A93" s="1">
+        <v>2.5451776950000002E-4</v>
       </c>
       <c r="B93">
         <v>3.4945764899999999E-5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>2.5604182800000004E-4</v>
+      <c r="A94" s="1">
+        <v>2.7092381100000002E-4</v>
       </c>
       <c r="B94">
         <v>4.7057547450000006E-5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>2.6957905349999999E-4</v>
+      <c r="A95" s="1">
+        <v>2.8804705650000003E-4</v>
       </c>
       <c r="B95">
         <v>6.238778295000001E-5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>2.8302662850000001E-4</v>
+      <c r="A96" s="1">
+        <v>3.0579785550000001E-4</v>
       </c>
       <c r="B96">
         <v>7.2222442800000009E-5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>2.9647420350000002E-4</v>
+      <c r="A97" s="1">
+        <v>3.2399690700000001E-4</v>
       </c>
       <c r="B97">
         <v>8.3043258150000004E-5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>3.1001142900000003E-4</v>
+      <c r="A98" s="1">
+        <v>3.4282351199999998E-4</v>
       </c>
       <c r="B98">
         <v>9.4850229000000008E-5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>3.2345900400000005E-4</v>
+      <c r="A99" s="1">
+        <v>3.6209836949999998E-4</v>
       </c>
       <c r="B99">
         <v>1.0775990100000001E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>3.3690657900000001E-4</v>
+      <c r="A100" s="1">
+        <v>3.8191113000000005E-4</v>
       </c>
       <c r="B100">
         <v>1.2183502950000001E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>3.5044380450000002E-4</v>
+      <c r="A101" s="1">
+        <v>4.0244109450000002E-4</v>
       </c>
       <c r="B101">
         <v>1.3707561450000002E-4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>3.6389137949999998E-4</v>
+      <c r="A102" s="1">
+        <v>4.2341931150000002E-4</v>
       </c>
       <c r="B102">
         <v>1.53481656E-4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>3.7733895449999999E-4</v>
+      <c r="A103" s="1">
+        <v>4.4511473250000004E-4</v>
       </c>
       <c r="B103">
         <v>1.7114280450000001E-4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>3.9087618E-4</v>
+      <c r="A104" s="1">
+        <v>4.6752735750000001E-4</v>
       </c>
       <c r="B104">
         <v>1.9014871050000002E-4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>4.0432375500000002E-4</v>
+      <c r="A105" s="1">
+        <v>4.9047788550000005E-4</v>
       </c>
       <c r="B105">
         <v>2.1049937400000003E-4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>4.1777133000000003E-4</v>
+      <c r="A106" s="1">
+        <v>5.1423526800000005E-4</v>
       </c>
       <c r="B106">
         <v>2.3228444550000004E-4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>4.3130855550000004E-4</v>
+      <c r="A107" s="1">
+        <v>5.3870985450000001E-4</v>
       </c>
       <c r="B107">
         <v>2.5550392500000001E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>4.4475613050000006E-4</v>
+      <c r="A108" s="1">
+        <v>5.6390164500000003E-4</v>
       </c>
       <c r="B108">
         <v>2.8024746300000001E-4</v>
